--- a/Data Sources/REPD (Operational Corrections)/RefIDLALookup.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/RefIDLALookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD096F1-B59E-4CE3-9E96-AFF5DA505793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FBA304-CA89-49A8-8141-CA62561650B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1084</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="47">
   <si>
     <t>LA</t>
   </si>
@@ -168,6 +160,12 @@
   </si>
   <si>
     <t>S99999999</t>
+  </si>
+  <si>
+    <t>Glasgow City</t>
+  </si>
+  <si>
+    <t>S12000049</t>
   </si>
 </sst>
 </file>
@@ -1155,19 +1153,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="30.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1189,7 +1187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>92</v>
       </c>
@@ -1200,7 +1198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>93</v>
       </c>
@@ -1211,7 +1209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>176</v>
       </c>
@@ -1222,7 +1220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>446</v>
       </c>
@@ -1233,7 +1231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>450</v>
       </c>
@@ -1244,7 +1242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>473</v>
       </c>
@@ -1255,7 +1253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>487</v>
       </c>
@@ -1266,7 +1264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>492</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>858</v>
       </c>
@@ -1288,7 +1286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2757</v>
       </c>
@@ -1299,7 +1297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2767</v>
       </c>
@@ -1310,7 +1308,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2840</v>
       </c>
@@ -1321,7 +1319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2903</v>
       </c>
@@ -1332,7 +1330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2980</v>
       </c>
@@ -1343,7 +1341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3099</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3104</v>
       </c>
@@ -1365,7 +1363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3109</v>
       </c>
@@ -1376,7 +1374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3116</v>
       </c>
@@ -1387,7 +1385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3119</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3121</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3123</v>
       </c>
@@ -1420,7 +1418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3136</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3219</v>
       </c>
@@ -1442,7 +1440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3222</v>
       </c>
@@ -1453,7 +1451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3227</v>
       </c>
@@ -1464,7 +1462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3235</v>
       </c>
@@ -1475,7 +1473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3258</v>
       </c>
@@ -1486,7 +1484,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3259</v>
       </c>
@@ -1497,7 +1495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3260</v>
       </c>
@@ -1508,7 +1506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3278</v>
       </c>
@@ -1519,7 +1517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3279</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3375</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3430</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3441</v>
       </c>
@@ -1563,7 +1561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3489</v>
       </c>
@@ -1574,7 +1572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3502</v>
       </c>
@@ -1585,7 +1583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3534</v>
       </c>
@@ -1596,7 +1594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3583</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3597</v>
       </c>
@@ -1618,7 +1616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3833</v>
       </c>
@@ -1629,7 +1627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3981</v>
       </c>
@@ -1640,7 +1638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4001</v>
       </c>
@@ -1651,7 +1649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4011</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4028</v>
       </c>
@@ -1673,7 +1671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4045</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4049</v>
       </c>
@@ -1695,7 +1693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4161</v>
       </c>
@@ -1706,7 +1704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4178</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4192</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4204</v>
       </c>
@@ -1739,7 +1737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4225</v>
       </c>
@@ -1750,7 +1748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4226</v>
       </c>
@@ -1761,7 +1759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4232</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4234</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4244</v>
       </c>
@@ -1794,7 +1792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4253</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4261</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4262</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4269</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4332</v>
       </c>
@@ -1849,7 +1847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4356</v>
       </c>
@@ -1860,7 +1858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4368</v>
       </c>
@@ -1871,7 +1869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4385</v>
       </c>
@@ -1882,7 +1880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4440</v>
       </c>
@@ -1893,7 +1891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4580</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4586</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4589</v>
       </c>
@@ -1926,7 +1924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4603</v>
       </c>
@@ -1937,7 +1935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4612</v>
       </c>
@@ -1948,7 +1946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4616</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4619</v>
       </c>
@@ -1970,7 +1968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4627</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4628</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4643</v>
       </c>
@@ -2003,7 +2001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4667</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4687</v>
       </c>
@@ -2025,7 +2023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4797</v>
       </c>
@@ -2036,7 +2034,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5051</v>
       </c>
@@ -2047,7 +2045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5129</v>
       </c>
@@ -2058,7 +2056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6407</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6564</v>
       </c>
@@ -2080,7 +2078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6637</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2974</v>
       </c>
@@ -2102,7 +2100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2975</v>
       </c>
@@ -2113,7 +2111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6057</v>
       </c>
@@ -2124,7 +2122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6828</v>
       </c>
@@ -2135,7 +2133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>6577</v>
       </c>
@@ -2146,7 +2144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>6826</v>
       </c>
@@ -2157,7 +2155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>6827</v>
       </c>
@@ -2168,7 +2166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>7460</v>
       </c>
@@ -2179,7 +2177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>7463</v>
       </c>
@@ -2190,7 +2188,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <v>6607</v>
       </c>
@@ -2201,7 +2199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>7337</v>
       </c>
@@ -2212,7 +2210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>7584</v>
       </c>
@@ -2223,7 +2221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>7585</v>
       </c>
@@ -2234,4209 +2232,4272 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>2978</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>3288</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>3516</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>4318</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>4622</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>6373</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>7159</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>7758</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>6797</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="5"/>
       <c r="B313" s="2"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="2"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="5"/>
       <c r="B315" s="2"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="5"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="5"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="5"/>
       <c r="B318" s="2"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="5"/>
       <c r="B320" s="2"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="5"/>
       <c r="B321" s="2"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="5"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="5"/>
       <c r="B323" s="2"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="5"/>
       <c r="B324" s="2"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="5"/>
       <c r="B325" s="2"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="5"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="5"/>
       <c r="B327" s="2"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="5"/>
       <c r="B328" s="2"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="5"/>
       <c r="B329" s="2"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="5"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="5"/>
       <c r="B331" s="2"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
       <c r="B332" s="2"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="5"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="5"/>
       <c r="B334" s="2"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="5"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="5"/>
       <c r="B336" s="2"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="5"/>
       <c r="B337" s="2"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="5"/>
       <c r="B339" s="2"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="2"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="2"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="2"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="5"/>
       <c r="B344" s="2"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="5"/>
       <c r="B345" s="2"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="5"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="5"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="5"/>
       <c r="B348" s="2"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="5"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="5"/>
       <c r="B350" s="2"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="5"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="5"/>
       <c r="B352" s="2"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="5"/>
       <c r="B353" s="2"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="5"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="5"/>
       <c r="B355" s="2"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
       <c r="B356" s="2"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="5"/>
       <c r="B357" s="2"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="5"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="5"/>
       <c r="B359" s="2"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="5"/>
       <c r="B360" s="2"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="5"/>
       <c r="B361" s="2"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="5"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="5"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
       <c r="B364" s="2"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="5"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="5"/>
       <c r="B366" s="2"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="5"/>
       <c r="B367" s="2"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="5"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="5"/>
       <c r="B369" s="2"/>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="5"/>
       <c r="B370" s="2"/>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="5"/>
       <c r="B371" s="2"/>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="5"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="5"/>
       <c r="B373" s="2"/>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="5"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="5"/>
       <c r="B375" s="2"/>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="5"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="5"/>
       <c r="B377" s="2"/>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="5"/>
       <c r="B378" s="2"/>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="5"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="5"/>
       <c r="B380" s="2"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="5"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="5"/>
       <c r="B382" s="2"/>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="5"/>
       <c r="B383" s="2"/>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="5"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="5"/>
       <c r="B385" s="2"/>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="5"/>
       <c r="B386" s="2"/>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="5"/>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="5"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="5"/>
       <c r="B389" s="2"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="5"/>
       <c r="B390" s="2"/>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="5"/>
       <c r="B391" s="2"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="5"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="5"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="5"/>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="5"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="5"/>
       <c r="B396" s="2"/>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="5"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="5"/>
       <c r="B398" s="2"/>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="5"/>
       <c r="B399" s="2"/>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="5"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="5"/>
       <c r="B401" s="2"/>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="5"/>
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="5"/>
       <c r="B403" s="2"/>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="5"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="5"/>
       <c r="B405" s="2"/>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="5"/>
       <c r="B406" s="2"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="5"/>
       <c r="B407" s="2"/>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="5"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="5"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="5"/>
       <c r="B410" s="2"/>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="5"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="5"/>
       <c r="B412" s="2"/>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="5"/>
       <c r="B413" s="2"/>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="5"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="5"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="5"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="5"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="5"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="5"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="5"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="5"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="5"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="5"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="5"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="5"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="5"/>
       <c r="B426" s="2"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="5"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="5"/>
       <c r="B428" s="2"/>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="5"/>
       <c r="B429" s="2"/>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="5"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="5"/>
       <c r="B431" s="2"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="5"/>
       <c r="B432" s="2"/>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="5"/>
       <c r="B433" s="2"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="5"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="5"/>
       <c r="B435" s="2"/>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="5"/>
       <c r="B436" s="2"/>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="5"/>
       <c r="B437" s="2"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="5"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="5"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="5"/>
       <c r="B440" s="2"/>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="5"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="5"/>
       <c r="B442" s="2"/>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="5"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="5"/>
       <c r="B444" s="2"/>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="5"/>
       <c r="B445" s="2"/>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="5"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="5"/>
       <c r="B447" s="2"/>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="5"/>
       <c r="B448" s="2"/>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="5"/>
       <c r="B449" s="2"/>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="5"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="5"/>
       <c r="B451" s="2"/>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="5"/>
       <c r="B452" s="2"/>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="5"/>
       <c r="B453" s="2"/>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="5"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="5"/>
       <c r="B456" s="2"/>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="5"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="5"/>
       <c r="B458" s="2"/>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="5"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="5"/>
       <c r="B460" s="2"/>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="5"/>
       <c r="B461" s="2"/>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="5"/>
       <c r="B462" s="2"/>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="5"/>
       <c r="B463" s="2"/>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="5"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="5"/>
       <c r="B465" s="2"/>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="5"/>
       <c r="B466" s="2"/>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="5"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="5"/>
       <c r="B468" s="2"/>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="5"/>
       <c r="B469" s="2"/>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="5"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="5"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="5"/>
       <c r="B472" s="2"/>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="5"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="5"/>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="5"/>
       <c r="B476" s="2"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="5"/>
       <c r="B477" s="2"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="5"/>
       <c r="B478" s="2"/>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="5"/>
       <c r="B479" s="2"/>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="5"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="5"/>
       <c r="B481" s="2"/>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="5"/>
       <c r="B482" s="2"/>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="5"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="5"/>
       <c r="B484" s="2"/>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="5"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="5"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="5"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="5"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="5"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="5"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="5"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="5"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="5"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="5"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="5"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="5"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="5"/>
       <c r="B497" s="2"/>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B498" s="2"/>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="5"/>
       <c r="B500" s="2"/>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="5"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="5"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="5"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="5"/>
       <c r="B504" s="2"/>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="5"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="5"/>
       <c r="B506" s="2"/>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="5"/>
       <c r="B507" s="2"/>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="5"/>
       <c r="B508" s="2"/>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="5"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="5"/>
       <c r="B510" s="2"/>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="5"/>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="5"/>
       <c r="B512" s="2"/>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="5"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="5"/>
       <c r="B514" s="2"/>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="5"/>
       <c r="B515" s="2"/>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="5"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="5"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="5"/>
       <c r="B518" s="2"/>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="5"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="5"/>
       <c r="B520" s="2"/>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="5"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="5"/>
       <c r="B522" s="2"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B523" s="2"/>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="5"/>
       <c r="B524" s="2"/>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="5"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="5"/>
       <c r="B526" s="2"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="5"/>
       <c r="B527" s="2"/>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="5"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="5"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="5"/>
       <c r="B531" s="2"/>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="5"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="5"/>
       <c r="B533" s="2"/>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="8"/>
       <c r="B534" s="9"/>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="5"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="5"/>
       <c r="B536" s="2"/>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="5"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="5"/>
       <c r="B538" s="2"/>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="5"/>
       <c r="B539" s="2"/>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="5"/>
       <c r="B540" s="2"/>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="5"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="5"/>
       <c r="B542" s="2"/>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="5"/>
       <c r="B543" s="2"/>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="5"/>
       <c r="B544" s="2"/>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="5"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="5"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="5"/>
       <c r="B547" s="2"/>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="5"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="5"/>
       <c r="B549" s="2"/>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="5"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="5"/>
       <c r="B551" s="2"/>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="5"/>
       <c r="B552" s="2"/>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="5"/>
       <c r="B553" s="2"/>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="5"/>
       <c r="B554" s="2"/>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="5"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="5"/>
       <c r="B556" s="2"/>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="5"/>
       <c r="B557" s="2"/>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="5"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="5"/>
       <c r="B559" s="2"/>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="5"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="5"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="5"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="5"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="5"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="5"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="5"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="5"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="5"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="5"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="5"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="5"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="5"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="5"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="5"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="5"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="5"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="5"/>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="5"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="5"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="5"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="5"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="5"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="5"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="5"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="5"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="5"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="5"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="5"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="5"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="5"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="5"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="5"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="5"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="5"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="5"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="5"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="5"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="5"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="5"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="5"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="5"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="5"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="5"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="5"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="5"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="5"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="5"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="5"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="5"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="5"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="5"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="5"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="5"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="5"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="5"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="5"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="5"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="5"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="5"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="5"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="5"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="5"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="5"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="5"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="5"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="5"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="5"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="5"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="5"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="5"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="5"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="5"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="5"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="5"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="5"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="5"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="5"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="5"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="5"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="5"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="5"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="5"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="5"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="5"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="5"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="5"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="5"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="5"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="5"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="5"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="5"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="5"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="5"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="5"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="5"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="5"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="5"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="5"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="5"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="5"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="5"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="5"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="5"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="5"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="5"/>
       <c r="B665" s="4"/>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="5"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="5"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="5"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="5"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="5"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="5"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="5"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="5"/>
       <c r="B673" s="4"/>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="5"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="5"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="5"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="5"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="5"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="5"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="5"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="5"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="5"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="5"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="5"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="5"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="5"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="5"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="5"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="5"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="5"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="5"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="5"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="5"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="5"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="5"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="5"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="5"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="5"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="5"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="5"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="5"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="5"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="5"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="5"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="5"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="5"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="5"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="5"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="5"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="5"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="5"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="5"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="5"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="5"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="5"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="5"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="5"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="5"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="5"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="5"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="5"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="5"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="5"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="5"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="5"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="5"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="5"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="5"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="5"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="5"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="5"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="5"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="5"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="5"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="5"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="5"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="5"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="5"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="5"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="5"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="5"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="5"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="5"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="5"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="5"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="5"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="5"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="5"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="5"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="5"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="5"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="5"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="5"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="5"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="5"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="5"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="5"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="5"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="5"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="5"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="5"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="5"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="5"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="5"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="5"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="5"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="5"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="5"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="8"/>
       <c r="B770" s="9"/>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="5"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="5"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" s="5"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="5"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="5"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="5"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="5"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="5"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" s="5"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="5"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="5"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="5"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" s="5"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="5"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="5"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="5"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="5"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" s="5"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="5"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" s="5"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" s="5"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" s="5"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" s="5"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="5"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" s="5"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" s="5"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="5"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" s="5"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="5"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="5"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" s="5"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="5"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" s="5"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="5"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="5"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="5"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="5"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" s="5"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" s="5"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="5"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="5"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="5"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" s="5"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="5"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="5"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" s="5"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" s="5"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" s="5"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" s="5"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" s="5"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" s="5"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" s="5"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" s="5"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" s="5"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" s="5"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" s="5"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" s="5"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" s="5"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" s="5"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" s="5"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" s="5"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" s="5"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" s="5"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" s="5"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" s="5"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" s="5"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" s="5"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" s="5"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" s="5"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" s="5"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" s="5"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" s="5"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" s="5"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" s="5"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" s="5"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" s="5"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" s="5"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" s="5"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" s="5"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" s="5"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" s="5"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" s="5"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" s="5"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" s="5"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" s="5"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" s="5"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" s="5"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" s="5"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" s="5"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" s="5"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" s="5"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" s="5"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" s="5"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" s="5"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" s="5"/>
       <c r="B865" s="2"/>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" s="5"/>
       <c r="B866" s="2"/>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" s="5"/>
       <c r="B867" s="2"/>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" s="5"/>
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" s="5"/>
       <c r="B869" s="2"/>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" s="5"/>
       <c r="B870" s="2"/>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" s="5"/>
       <c r="B871" s="2"/>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" s="5"/>
       <c r="B872" s="2"/>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" s="5"/>
       <c r="B873" s="2"/>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" s="5"/>
       <c r="B874" s="2"/>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" s="5"/>
       <c r="B875" s="2"/>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" s="5"/>
       <c r="B876" s="2"/>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" s="5"/>
       <c r="B877" s="2"/>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" s="5"/>
       <c r="B878" s="2"/>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" s="5"/>
       <c r="B879" s="2"/>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" s="5"/>
       <c r="B880" s="2"/>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" s="5"/>
       <c r="B881" s="2"/>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" s="5"/>
       <c r="B882" s="2"/>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" s="5"/>
       <c r="B883" s="2"/>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" s="5"/>
       <c r="B884" s="2"/>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" s="5"/>
       <c r="B885" s="2"/>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" s="5"/>
       <c r="B886" s="2"/>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" s="5"/>
       <c r="B887" s="2"/>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" s="5"/>
       <c r="B888" s="2"/>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" s="5"/>
       <c r="B889" s="2"/>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" s="5"/>
       <c r="B890" s="2"/>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" s="5"/>
       <c r="B891" s="2"/>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" s="5"/>
       <c r="B892" s="2"/>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" s="5"/>
       <c r="B893" s="2"/>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" s="5"/>
       <c r="B894" s="2"/>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" s="5"/>
       <c r="B895" s="2"/>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" s="5"/>
       <c r="B896" s="2"/>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" s="5"/>
       <c r="B897" s="2"/>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" s="5"/>
       <c r="B898" s="2"/>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" s="5"/>
       <c r="B899" s="2"/>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" s="5"/>
       <c r="B900" s="2"/>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" s="5"/>
       <c r="B901" s="2"/>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" s="5"/>
       <c r="B902" s="2"/>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" s="5"/>
       <c r="B903" s="2"/>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" s="5"/>
       <c r="B904" s="2"/>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" s="5"/>
       <c r="B906" s="2"/>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" s="5"/>
       <c r="B907" s="2"/>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" s="5"/>
       <c r="B908" s="2"/>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" s="5"/>
       <c r="B909" s="2"/>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" s="5"/>
       <c r="B910" s="2"/>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" s="5"/>
       <c r="B911" s="2"/>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" s="5"/>
       <c r="B912" s="2"/>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" s="5"/>
       <c r="B913" s="2"/>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" s="5"/>
       <c r="B914" s="2"/>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" s="5"/>
       <c r="B915" s="2"/>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" s="5"/>
       <c r="B916" s="2"/>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" s="5"/>
       <c r="B917" s="2"/>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" s="5"/>
       <c r="B918" s="2"/>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" s="5"/>
       <c r="B919" s="2"/>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" s="5"/>
       <c r="B920" s="2"/>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" s="5"/>
       <c r="B921" s="2"/>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" s="5"/>
       <c r="B922" s="2"/>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" s="5"/>
       <c r="B923" s="2"/>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" s="5"/>
       <c r="B924" s="2"/>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" s="5"/>
       <c r="B925" s="2"/>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" s="5"/>
       <c r="B926" s="2"/>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" s="5"/>
       <c r="B927" s="2"/>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" s="5"/>
       <c r="B928" s="2"/>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" s="5"/>
       <c r="B929" s="2"/>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" s="5"/>
       <c r="B930" s="2"/>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" s="5"/>
       <c r="B931" s="2"/>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" s="5"/>
       <c r="B932" s="2"/>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" s="5"/>
       <c r="B933" s="2"/>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" s="5"/>
       <c r="B934" s="2"/>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" s="5"/>
       <c r="B935" s="2"/>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" s="5"/>
       <c r="B936" s="2"/>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" s="5"/>
       <c r="B937" s="2"/>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" s="5"/>
       <c r="B938" s="2"/>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" s="5"/>
       <c r="B939" s="2"/>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" s="5"/>
       <c r="B940" s="2"/>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" s="5"/>
       <c r="B941" s="2"/>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" s="5"/>
       <c r="B942" s="2"/>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" s="5"/>
       <c r="B943" s="2"/>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" s="5"/>
       <c r="B944" s="2"/>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" s="5"/>
       <c r="B946" s="2"/>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" s="5"/>
       <c r="B947" s="2"/>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" s="5"/>
       <c r="B948" s="2"/>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" s="5"/>
       <c r="B950" s="2"/>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" s="5"/>
       <c r="B951" s="2"/>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A952" s="5"/>
       <c r="B952" s="2"/>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" s="5"/>
       <c r="B953" s="2"/>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A954" s="5"/>
       <c r="B954" s="2"/>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" s="5"/>
       <c r="B955" s="2"/>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" s="5"/>
       <c r="B956" s="2"/>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" s="5"/>
       <c r="B957" s="2"/>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" s="5"/>
       <c r="B958" s="2"/>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A959" s="5"/>
       <c r="B959" s="2"/>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" s="5"/>
       <c r="B960" s="2"/>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A961" s="5"/>
       <c r="B961" s="2"/>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A962" s="5"/>
       <c r="B962" s="2"/>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A963" s="5"/>
       <c r="B963" s="2"/>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A964" s="5"/>
       <c r="B964" s="2"/>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A965" s="5"/>
       <c r="B965" s="2"/>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A966" s="5"/>
       <c r="B966" s="2"/>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A967" s="5"/>
       <c r="B967" s="2"/>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A968" s="5"/>
       <c r="B968" s="2"/>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A969" s="5"/>
       <c r="B969" s="2"/>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A970" s="5"/>
       <c r="B970" s="2"/>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A971" s="5"/>
       <c r="B971" s="2"/>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A972" s="5"/>
       <c r="B972" s="2"/>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A973" s="5"/>
       <c r="B973" s="2"/>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A974" s="5"/>
       <c r="B974" s="2"/>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A975" s="5"/>
       <c r="B975" s="2"/>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A976" s="5"/>
       <c r="B976" s="2"/>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A977" s="5"/>
       <c r="B977" s="2"/>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" s="5"/>
       <c r="B978" s="2"/>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A979" s="5"/>
       <c r="B979" s="2"/>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A980" s="5"/>
       <c r="B980" s="2"/>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A981" s="5"/>
       <c r="B981" s="2"/>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A982" s="5"/>
       <c r="B982" s="2"/>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A983" s="5"/>
       <c r="B983" s="2"/>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A984" s="5"/>
       <c r="B984" s="2"/>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A985" s="5"/>
       <c r="B985" s="2"/>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A986" s="5"/>
       <c r="B986" s="2"/>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A987" s="5"/>
       <c r="B987" s="2"/>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A988" s="5"/>
       <c r="B988" s="2"/>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A989" s="5"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A990" s="5"/>
       <c r="B990" s="2"/>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A991" s="5"/>
       <c r="B991" s="2"/>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A992" s="5"/>
       <c r="B992" s="2"/>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A993" s="5"/>
       <c r="B993" s="2"/>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A994" s="5"/>
       <c r="B994" s="2"/>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A995" s="5"/>
       <c r="B995" s="2"/>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A996" s="5"/>
       <c r="B996" s="2"/>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A997" s="5"/>
       <c r="B997" s="2"/>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A998" s="5"/>
       <c r="B998" s="2"/>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A999" s="5"/>
       <c r="B999" s="2"/>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1000" s="5"/>
       <c r="B1000" s="2"/>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1001" s="5"/>
       <c r="B1001" s="2"/>
     </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" s="5"/>
       <c r="B1002" s="2"/>
     </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1003" s="5"/>
       <c r="B1003" s="2"/>
     </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1004" s="5"/>
       <c r="B1004" s="2"/>
     </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1005" s="5"/>
       <c r="B1005" s="2"/>
     </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1006" s="5"/>
       <c r="B1006" s="2"/>
     </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1007" s="5"/>
       <c r="B1007" s="2"/>
     </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1008" s="5"/>
       <c r="B1008" s="2"/>
     </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1009" s="5"/>
       <c r="B1009" s="2"/>
     </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1010" s="5"/>
       <c r="B1010" s="2"/>
     </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1011" s="5"/>
       <c r="B1011" s="2"/>
     </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1012" s="5"/>
       <c r="B1012" s="2"/>
     </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1013" s="5"/>
       <c r="B1013" s="2"/>
     </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1014" s="5"/>
     </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1015" s="5"/>
       <c r="B1015" s="2"/>
     </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1016" s="5"/>
       <c r="B1016" s="2"/>
     </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1018" s="5"/>
       <c r="B1018" s="2"/>
     </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1019" s="5"/>
       <c r="B1019" s="2"/>
     </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1020" s="5"/>
       <c r="B1020" s="2"/>
     </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1021" s="5"/>
       <c r="B1021" s="2"/>
     </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1022" s="5"/>
       <c r="B1022" s="2"/>
     </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1023" s="5"/>
       <c r="B1023" s="2"/>
     </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1024" s="5"/>
       <c r="B1024" s="2"/>
     </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1025" s="5"/>
       <c r="B1025" s="2"/>
     </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1026" s="5"/>
       <c r="B1026" s="2"/>
     </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1027" s="5"/>
       <c r="B1027" s="2"/>
     </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1028" s="10"/>
       <c r="B1028" s="10"/>
     </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1029" s="5"/>
       <c r="B1029" s="2"/>
     </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1030" s="5"/>
       <c r="B1030" s="2"/>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1031" s="5"/>
       <c r="B1031" s="2"/>
     </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1032" s="5"/>
       <c r="B1032" s="2"/>
     </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1033" s="5"/>
       <c r="B1033" s="2"/>
     </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1034" s="5"/>
       <c r="B1034" s="2"/>
     </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1035" s="5"/>
       <c r="B1035" s="2"/>
     </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1036" s="5"/>
       <c r="B1036" s="2"/>
     </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1037" s="5"/>
       <c r="B1037" s="2"/>
     </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1038" s="5"/>
       <c r="B1038" s="2"/>
     </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1039" s="5"/>
       <c r="B1039" s="2"/>
     </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1040" s="5"/>
       <c r="B1040" s="2"/>
     </row>
-    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1041" s="5"/>
       <c r="B1041" s="2"/>
     </row>
-    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1042" s="5"/>
       <c r="B1042" s="2"/>
     </row>
-    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1043" s="5"/>
       <c r="B1043" s="2"/>
     </row>
-    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1044" s="5"/>
       <c r="B1044" s="2"/>
     </row>
-    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1045" s="5"/>
       <c r="B1045" s="2"/>
     </row>
-    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1046" s="5"/>
       <c r="B1046" s="2"/>
     </row>
-    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1047" s="5"/>
       <c r="B1047" s="2"/>
     </row>
-    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1048" s="5"/>
       <c r="B1048" s="2"/>
     </row>
-    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1049" s="5"/>
       <c r="B1049" s="2"/>
     </row>
-    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1050" s="5"/>
       <c r="B1050" s="2"/>
     </row>
-    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1051" s="5"/>
       <c r="B1051" s="2"/>
     </row>
-    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1052" s="5"/>
       <c r="B1052" s="2"/>
     </row>
-    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1053" s="5"/>
       <c r="B1053" s="2"/>
     </row>
-    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1054" s="5"/>
       <c r="B1054" s="2"/>
     </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1055" s="5"/>
       <c r="B1055" s="2"/>
     </row>
-    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1056" s="5"/>
       <c r="B1056" s="2"/>
     </row>
-    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1057" s="5"/>
       <c r="B1057" s="2"/>
     </row>
-    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1058" s="5"/>
       <c r="B1058" s="2"/>
     </row>
-    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1059" s="5"/>
       <c r="B1059" s="2"/>
     </row>
-    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1060" s="5"/>
       <c r="B1060" s="2"/>
     </row>
-    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1061" s="5"/>
       <c r="B1061" s="2"/>
     </row>
-    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1062" s="5"/>
       <c r="B1062" s="2"/>
     </row>
-    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1064" s="5"/>
       <c r="B1064" s="2"/>
     </row>
-    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1065" s="5"/>
       <c r="B1065" s="2"/>
     </row>
-    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1066" s="5"/>
       <c r="B1066" s="2"/>
     </row>
-    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1067" s="5"/>
       <c r="B1067" s="2"/>
     </row>
-    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1068" s="5"/>
       <c r="B1068" s="2"/>
     </row>
-    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1071" s="5"/>
       <c r="B1071" s="2"/>
     </row>
-    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1072" s="5"/>
       <c r="B1072" s="2"/>
     </row>
-    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1073" s="5"/>
       <c r="B1073" s="2"/>
     </row>
-    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1074" s="5"/>
       <c r="B1074" s="2"/>
     </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1075" s="5"/>
       <c r="B1075" s="2"/>
     </row>
-    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1076" s="5"/>
       <c r="B1076" s="2"/>
     </row>
-    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1077" s="5"/>
       <c r="B1077" s="2"/>
     </row>
-    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1078" s="5"/>
       <c r="B1078" s="2"/>
     </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1079" s="5"/>
       <c r="B1079" s="2"/>
     </row>
-    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1080" s="5"/>
       <c r="B1080" s="2"/>
     </row>
-    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1081" s="5"/>
       <c r="B1081" s="2"/>
     </row>
-    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1082" s="6"/>
       <c r="B1082" s="3"/>
     </row>
-    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1083" s="5"/>
       <c r="B1083" s="2"/>
     </row>
-    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1085" s="5"/>
       <c r="B1085" s="2"/>
     </row>
-    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1086" s="5"/>
       <c r="B1086" s="2"/>
     </row>
-    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1087" s="5"/>
       <c r="B1087" s="2"/>
     </row>
-    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1088" s="8"/>
       <c r="B1088" s="9"/>
     </row>
-    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1089" s="5"/>
       <c r="B1089" s="2"/>
     </row>
-    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1090" s="5"/>
       <c r="B1090" s="2"/>
     </row>
-    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1091" s="5"/>
       <c r="B1091" s="2"/>
     </row>
-    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1092" s="5"/>
       <c r="B1092" s="2"/>
     </row>
-    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1093" s="5"/>
       <c r="B1093" s="2"/>
     </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1094" s="5"/>
       <c r="B1094" s="2"/>
     </row>
-    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1095" s="5"/>
       <c r="B1095" s="2"/>
     </row>
-    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1096" s="5"/>
       <c r="B1096" s="2"/>
     </row>
-    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1097" s="5"/>
       <c r="B1097" s="2"/>
     </row>
-    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1098" s="5"/>
       <c r="B1098" s="2"/>
     </row>
-    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1099" s="5"/>
       <c r="B1099" s="2"/>
     </row>
-    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1100" s="5"/>
       <c r="B1100" s="2"/>
     </row>
-    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1101" s="5"/>
       <c r="B1101" s="2"/>
     </row>
-    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1102" s="5"/>
       <c r="B1102" s="2"/>
     </row>
-    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1103" s="5"/>
       <c r="B1103" s="2"/>
     </row>
-    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1104" s="5"/>
       <c r="B1104" s="2"/>
     </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1105" s="5"/>
       <c r="B1105" s="2"/>
     </row>
-    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1111" s="2"/>
     </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1112" s="5"/>
       <c r="B1112" s="2"/>
     </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1113" s="5"/>
       <c r="B1113" s="2"/>
     </row>
-    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1114" s="5"/>
       <c r="B1114" s="2"/>
     </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1115" s="5"/>
       <c r="B1115" s="2"/>
     </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1116" s="5"/>
       <c r="B1116" s="2"/>
     </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1117" s="5"/>
       <c r="B1117" s="2"/>
     </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1118" s="5"/>
       <c r="B1118" s="2"/>
     </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1119" s="5"/>
       <c r="B1119" s="2"/>
     </row>
-    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1120" s="5"/>
       <c r="B1120" s="2"/>
     </row>
-    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1121" s="8"/>
       <c r="B1121" s="9"/>
     </row>
-    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1122" s="5"/>
       <c r="B1122" s="2"/>
     </row>
-    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1129" s="12"/>
       <c r="B1129" s="12"/>
     </row>
-    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1140" s="7"/>
       <c r="B1140" s="7"/>
     </row>
-    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1148" s="5"/>
       <c r="B1148" s="2"/>
     </row>
-    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1165" s="5"/>
       <c r="B1165" s="2"/>
     </row>
-    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1166" s="5"/>
     </row>
-    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1167" s="5"/>
     </row>
-    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1168" s="5"/>
     </row>
-    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1169" s="5"/>
     </row>
-    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1170" s="5"/>
     </row>
-    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1171" s="5"/>
     </row>
-    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1172" s="5"/>
     </row>
-    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1173" s="5"/>
     </row>
-    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1174" s="5"/>
       <c r="B1174"/>
     </row>
-    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1175" s="5"/>
     </row>
-    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1176" s="5"/>
     </row>
-    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1177" s="5"/>
     </row>
-    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1178" s="5"/>
       <c r="B1178"/>
     </row>
-    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1179" s="5"/>
       <c r="B1179"/>
     </row>
-    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1180" s="5"/>
     </row>
-    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1181" s="5"/>
       <c r="B1181"/>
     </row>
-    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1182" s="5"/>
     </row>
-    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1183" s="5"/>
     </row>
-    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1184" s="5"/>
       <c r="B1184"/>
     </row>
-    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1185" s="5"/>
     </row>
-    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1186" s="5"/>
       <c r="B1186"/>
     </row>
-    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1187" s="5"/>
     </row>
-    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1188" s="5"/>
       <c r="B1188"/>
     </row>
-    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1189" s="5"/>
       <c r="B1189"/>
     </row>
-    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1190" s="5"/>
       <c r="B1190"/>
     </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1191" s="5"/>
       <c r="B1191"/>
     </row>
-    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1192" s="5"/>
       <c r="B1192" s="2"/>
     </row>
-    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1193" s="5"/>
       <c r="B1193"/>
     </row>
-    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1194" s="5"/>
       <c r="B1194"/>
     </row>
-    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1195" s="5"/>
       <c r="B1195" s="2"/>
     </row>
-    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1196" s="5"/>
     </row>
-    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1197" s="5"/>
     </row>
-    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1198" s="5"/>
     </row>
-    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1200" s="2"/>
     </row>
-    <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1210" s="2"/>
     </row>
-    <row r="1219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1219" s="2"/>
     </row>
-    <row r="1229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1229" s="2"/>
     </row>
-    <row r="1232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1232" s="2"/>
     </row>
-    <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1236" s="10"/>
       <c r="B1236" s="10"/>
     </row>
-    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1241" s="2"/>
     </row>
-    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1243" s="2"/>
     </row>
-    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1246" s="2"/>
     </row>
-    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1248" s="2"/>
     </row>
-    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1250" s="2"/>
     </row>
-    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1254" s="10"/>
       <c r="B1254" s="10"/>
     </row>
-    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1277" s="10"/>
       <c r="B1277" s="10"/>
     </row>
-    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1278" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1278" s="10"/>
       <c r="B1278" s="11"/>
     </row>
-    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1279" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1279" s="10"/>
       <c r="B1279" s="10"/>
     </row>
-    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1280" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1280" s="10"/>
       <c r="B1280" s="10"/>
     </row>
-    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1281"/>
       <c r="B1281"/>
     </row>
-    <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1282"/>
       <c r="B1282"/>
     </row>
-    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1283"/>
       <c r="B1283"/>
     </row>
-    <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1284"/>
       <c r="B1284"/>
     </row>
-    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1285"/>
       <c r="B1285" s="13"/>
     </row>
-    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1286"/>
       <c r="B1286"/>
     </row>
-    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1287"/>
       <c r="B1287"/>
     </row>
@@ -6455,7 +6516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6467,7 +6528,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Sources/REPD (Operational Corrections)/RefIDLALookup.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/RefIDLALookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FBA304-CA89-49A8-8141-CA62561650B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B43A8B-84EF-41C9-9FC5-F1B996ECC78A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15960" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="51">
   <si>
     <t>LA</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>S12000049</t>
+  </si>
+  <si>
+    <t>Highland</t>
+  </si>
+  <si>
+    <t>Dumfries and Galloway</t>
+  </si>
+  <si>
+    <t>S12000017</t>
+  </si>
+  <si>
+    <t>S12000006</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2332,90 +2344,160 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="2"/>
+      <c r="A107">
+        <v>3204</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="2"/>
+      <c r="A108">
+        <v>5172</v>
+      </c>
+      <c r="B108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="2"/>
+      <c r="A109">
+        <v>6177</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="2"/>
+      <c r="A110">
+        <v>7454</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="2"/>
+      <c r="A111">
+        <v>7708</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>8096</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>8196</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>8247</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>8248</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>8418</v>
+      </c>
+      <c r="B116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="2"/>
     </row>

--- a/Data Sources/REPD (Operational Corrections)/RefIDLALookup.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/RefIDLALookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24524"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B43A8B-84EF-41C9-9FC5-F1B996ECC78A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178FD9F7-CDC0-4533-A7F1-1266B0DDF4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15960" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="51">
   <si>
     <t>LA</t>
   </si>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2454,24 +2454,59 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="5">
+        <v>3328</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="5">
+        <v>3586</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" s="2"/>
+      <c r="A119" s="5">
+        <v>7877</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="2"/>
+      <c r="A120" s="5">
+        <v>7878</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="5">
+        <v>8927</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>

--- a/Data Sources/REPD (Operational Corrections)/RefIDLALookup.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/RefIDLALookup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178FD9F7-CDC0-4533-A7F1-1266B0DDF4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61987E29-1D9A-4794-B417-1868ACAAAE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="53">
   <si>
     <t>LA</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Shetland Islands</t>
-  </si>
-  <si>
-    <t>Ref ID</t>
   </si>
   <si>
     <t>LACode</t>
@@ -178,6 +175,15 @@
   </si>
   <si>
     <t>S12000006</t>
+  </si>
+  <si>
+    <t>Orkney Islands</t>
+  </si>
+  <si>
+    <t>S12000023</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1179,13 +1185,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,7 +1290,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1389,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,7 +1422,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,7 +1433,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,7 +1444,7 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1449,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1460,7 +1466,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1471,7 +1477,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1493,7 +1499,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1504,7 +1510,7 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,7 +1521,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1526,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1559,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,7 +1620,7 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,7 +1642,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1647,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,7 +1664,7 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1669,7 +1675,7 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,7 +1686,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,7 +1697,7 @@
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1713,7 +1719,7 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1735,7 +1741,7 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1746,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1757,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1779,7 +1785,7 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,7 +1796,7 @@
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1801,7 +1807,7 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1823,7 +1829,7 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,7 +1851,7 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,7 +1862,7 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1867,7 +1873,7 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +1884,7 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1889,7 +1895,7 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,7 +1906,7 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1911,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1922,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1955,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,7 +1983,7 @@
         <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1999,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2010,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2021,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2032,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2043,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2054,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2065,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2076,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2087,7 +2093,7 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2098,7 +2104,7 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2109,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2120,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2131,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,7 +2148,7 @@
         <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2164,7 +2170,7 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2175,7 +2181,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2186,7 +2192,7 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2197,7 +2203,7 @@
         <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2208,7 +2214,7 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2219,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2230,7 +2236,7 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2241,7 +2247,7 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2252,7 +2258,7 @@
         <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2263,7 +2269,7 @@
         <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2274,7 +2280,7 @@
         <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2285,7 +2291,7 @@
         <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2296,7 +2302,7 @@
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2307,7 +2313,7 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2318,7 +2324,7 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2326,10 +2332,10 @@
         <v>7758</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" t="s">
         <v>45</v>
-      </c>
-      <c r="C105" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2340,7 +2346,7 @@
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,10 +2354,10 @@
         <v>3204</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2359,10 +2365,10 @@
         <v>5172</v>
       </c>
       <c r="B108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2370,10 +2376,10 @@
         <v>6177</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,10 +2387,10 @@
         <v>7454</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2392,10 +2398,10 @@
         <v>7708</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2403,10 +2409,10 @@
         <v>8096</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2414,10 +2420,10 @@
         <v>8196</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2425,10 +2431,10 @@
         <v>8247</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,10 +2442,10 @@
         <v>8248</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2447,10 +2453,10 @@
         <v>8418</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2461,7 +2467,7 @@
         <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2472,7 +2478,7 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2483,7 +2489,7 @@
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2494,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2505,16 +2511,30 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="2"/>
+      <c r="A122" s="5">
+        <v>9071</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="5">
+        <v>9300</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C123" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>

--- a/Data Sources/REPD (Operational Corrections)/RefIDLALookup.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/RefIDLALookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61987E29-1D9A-4794-B417-1868ACAAAE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74961339-557E-47FC-87E3-9C79525C1279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     <t>S12000023</t>
   </si>
   <si>
-    <t>Ref</t>
+    <t>Ref ID</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -752,22 +752,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -778,10 +766,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -849,9 +834,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -889,9 +874,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,26 +909,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,26 +944,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1175,15 +1126,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="30.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1194,7 +1145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1205,7 +1156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>92</v>
       </c>
@@ -1216,7 +1167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>93</v>
       </c>
@@ -1227,7 +1178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>176</v>
       </c>
@@ -1238,7 +1189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>446</v>
       </c>
@@ -1249,7 +1200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>450</v>
       </c>
@@ -1260,7 +1211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>473</v>
       </c>
@@ -1271,7 +1222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>487</v>
       </c>
@@ -1282,7 +1233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>492</v>
       </c>
@@ -1293,7 +1244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>858</v>
       </c>
@@ -1304,7 +1255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2757</v>
       </c>
@@ -1315,7 +1266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2767</v>
       </c>
@@ -1326,7 +1277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2840</v>
       </c>
@@ -1337,7 +1288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2903</v>
       </c>
@@ -1348,7 +1299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2980</v>
       </c>
@@ -1359,7 +1310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3099</v>
       </c>
@@ -1370,7 +1321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3104</v>
       </c>
@@ -1381,7 +1332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3109</v>
       </c>
@@ -1392,7 +1343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3116</v>
       </c>
@@ -1403,7 +1354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3119</v>
       </c>
@@ -1414,7 +1365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3121</v>
       </c>
@@ -1425,7 +1376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3123</v>
       </c>
@@ -1436,7 +1387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3136</v>
       </c>
@@ -1447,7 +1398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3219</v>
       </c>
@@ -1458,7 +1409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3222</v>
       </c>
@@ -1469,7 +1420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3227</v>
       </c>
@@ -1480,7 +1431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3235</v>
       </c>
@@ -1491,7 +1442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3258</v>
       </c>
@@ -1502,7 +1453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3259</v>
       </c>
@@ -1513,7 +1464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3260</v>
       </c>
@@ -1524,7 +1475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3278</v>
       </c>
@@ -1535,7 +1486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3279</v>
       </c>
@@ -1546,7 +1497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3375</v>
       </c>
@@ -1557,7 +1508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3430</v>
       </c>
@@ -1568,7 +1519,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3441</v>
       </c>
@@ -1579,7 +1530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3489</v>
       </c>
@@ -1590,7 +1541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3502</v>
       </c>
@@ -1601,7 +1552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3534</v>
       </c>
@@ -1612,7 +1563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3583</v>
       </c>
@@ -1623,7 +1574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3597</v>
       </c>
@@ -1634,7 +1585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3833</v>
       </c>
@@ -1645,7 +1596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3981</v>
       </c>
@@ -1656,7 +1607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4001</v>
       </c>
@@ -1667,7 +1618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4011</v>
       </c>
@@ -1678,7 +1629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4028</v>
       </c>
@@ -1689,7 +1640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4045</v>
       </c>
@@ -1700,7 +1651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4049</v>
       </c>
@@ -1711,7 +1662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4161</v>
       </c>
@@ -1722,7 +1673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4178</v>
       </c>
@@ -1733,7 +1684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4192</v>
       </c>
@@ -1744,7 +1695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4204</v>
       </c>
@@ -1755,7 +1706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4225</v>
       </c>
@@ -1766,7 +1717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4226</v>
       </c>
@@ -1777,7 +1728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4232</v>
       </c>
@@ -1788,7 +1739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4234</v>
       </c>
@@ -1799,7 +1750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4244</v>
       </c>
@@ -1810,7 +1761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4253</v>
       </c>
@@ -1821,7 +1772,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4261</v>
       </c>
@@ -1832,7 +1783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4262</v>
       </c>
@@ -1843,7 +1794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4269</v>
       </c>
@@ -1854,7 +1805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4332</v>
       </c>
@@ -1865,7 +1816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4356</v>
       </c>
@@ -1876,7 +1827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4368</v>
       </c>
@@ -1887,7 +1838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4385</v>
       </c>
@@ -1898,7 +1849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4440</v>
       </c>
@@ -1909,7 +1860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4580</v>
       </c>
@@ -1920,7 +1871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4586</v>
       </c>
@@ -1931,7 +1882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4589</v>
       </c>
@@ -1942,7 +1893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4603</v>
       </c>
@@ -1953,7 +1904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4612</v>
       </c>
@@ -1964,7 +1915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4616</v>
       </c>
@@ -1975,7 +1926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4619</v>
       </c>
@@ -1986,7 +1937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4627</v>
       </c>
@@ -1997,7 +1948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4628</v>
       </c>
@@ -2008,7 +1959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4643</v>
       </c>
@@ -2019,7 +1970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4667</v>
       </c>
@@ -2030,7 +1981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4687</v>
       </c>
@@ -2041,7 +1992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4797</v>
       </c>
@@ -2052,7 +2003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5051</v>
       </c>
@@ -2063,7 +2014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5129</v>
       </c>
@@ -2074,7 +2025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>6407</v>
       </c>
@@ -2085,7 +2036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>6564</v>
       </c>
@@ -2096,7 +2047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6637</v>
       </c>
@@ -2107,7 +2058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2974</v>
       </c>
@@ -2118,7 +2069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2975</v>
       </c>
@@ -2129,7 +2080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6057</v>
       </c>
@@ -2140,7 +2091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>6828</v>
       </c>
@@ -2151,8 +2102,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="14">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="10">
         <v>6577</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -2162,8 +2113,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="10">
         <v>6826</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -2173,8 +2124,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="10">
         <v>6827</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -2184,8 +2135,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="10">
         <v>7460</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -2195,8 +2146,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="10">
         <v>7463</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -2206,19 +2157,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="10">
         <v>6607</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="16">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="11">
         <v>7337</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -2228,8 +2179,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="16">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="11">
         <v>7584</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -2239,8 +2190,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="16">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="11">
         <v>7585</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -2250,8 +2201,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>2978</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -2261,8 +2212,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>3288</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -2272,8 +2223,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
         <v>3516</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -2283,8 +2234,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
         <v>4318</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -2294,8 +2245,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
         <v>4622</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -2305,8 +2256,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
         <v>6373</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -2316,8 +2267,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
         <v>7159</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -2327,8 +2278,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
         <v>7758</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -2338,8 +2289,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
         <v>6797</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -2349,7 +2300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3204</v>
       </c>
@@ -2360,7 +2311,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5172</v>
       </c>
@@ -2371,7 +2322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>6177</v>
       </c>
@@ -2382,7 +2333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>7454</v>
       </c>
@@ -2393,7 +2344,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>7708</v>
       </c>
@@ -2404,7 +2355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>8096</v>
       </c>
@@ -2415,7 +2366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>8196</v>
       </c>
@@ -2426,7 +2377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>8247</v>
       </c>
@@ -2437,7 +2388,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>8248</v>
       </c>
@@ -2448,7 +2399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>8418</v>
       </c>
@@ -2459,8 +2410,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
         <v>3328</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -2470,8 +2421,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
         <v>3586</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -2481,8 +2432,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
         <v>7877</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -2492,8 +2443,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
         <v>7878</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -2503,8 +2454,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
         <v>8927</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -2514,8 +2465,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
         <v>9071</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -2525,8 +2476,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
         <v>9300</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -2536,4105 +2487,4099 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="4"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="4"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="4"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="4"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="4"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="4"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="4"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="4"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="4"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="4"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="4"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="4"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="4"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="4"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="4"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="4"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="4"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="4"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="4"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="4"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="4"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="4"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="4"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="4"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="4"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="4"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="4"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="4"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="4"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="4"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="4"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="4"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="4"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="4"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="4"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="4"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="4"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="4"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="4"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="4"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="4"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="5"/>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="4"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="5"/>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="4"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="5"/>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="4"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="4"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="4"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="5"/>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="4"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="5"/>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="4"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="5"/>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="4"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="4"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="4"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="4"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="4"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="4"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="4"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="4"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="4"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="4"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="4"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="4"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="4"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="4"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="4"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="4"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="4"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="4"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="4"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="5"/>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="4"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="4"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="5"/>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="4"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5"/>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="4"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="5"/>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="4"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="5"/>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="4"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="5"/>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="4"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="5"/>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="4"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="5"/>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="4"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="5"/>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="4"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="5"/>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="4"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="4"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="4"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="4"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="5"/>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="4"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="4"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="4"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="4"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="4"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="4"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="4"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="5"/>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="4"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="5"/>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="4"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="5"/>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="4"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="5"/>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="4"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="5"/>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="4"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="5"/>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="4"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="5"/>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="4"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="5"/>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="4"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="5"/>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="4"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="5"/>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="4"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="5"/>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="4"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="5"/>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="4"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="5"/>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="4"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="5"/>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="4"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="5"/>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="4"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="5"/>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="4"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="5"/>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="4"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="5"/>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="4"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="5"/>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="4"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="5"/>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="4"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="5"/>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="4"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="5"/>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="4"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="5"/>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="4"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="5"/>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="4"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="5"/>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="4"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="5"/>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="4"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="5"/>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="4"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="5"/>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="4"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="5"/>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="4"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="5"/>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="4"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="5"/>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="4"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="5"/>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="4"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="5"/>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="4"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="5"/>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="4"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="5"/>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="4"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="5"/>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="4"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="5"/>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="4"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="5"/>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="4"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="5"/>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="4"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="5"/>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="4"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="5"/>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="4"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="5"/>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="4"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="5"/>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="4"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="5"/>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="4"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="5"/>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="4"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="5"/>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="4"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="5"/>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="4"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="5"/>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="4"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="5"/>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="4"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="5"/>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="4"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="5"/>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="4"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="5"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="5"/>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="4"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="5"/>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="4"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="5"/>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="4"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="5"/>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="4"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="5"/>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="4"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="5"/>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="4"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="5"/>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="4"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="5"/>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="4"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="5"/>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="4"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="5"/>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="4"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="5"/>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="4"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="5"/>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="4"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="5"/>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="4"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="5"/>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="4"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="5"/>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="4"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="5"/>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="4"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="5"/>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="4"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="5"/>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="4"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="5"/>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="4"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="5"/>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="4"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="5"/>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="4"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="5"/>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="4"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="5"/>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="4"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="5"/>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="4"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="5"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="5"/>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="4"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="4"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="5"/>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="4"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="5"/>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="4"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="5"/>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="4"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="5"/>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="4"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="5"/>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="4"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="5"/>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="4"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="5"/>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="4"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="5"/>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="4"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="5"/>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="4"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="5"/>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="4"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="5"/>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="4"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="5"/>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="4"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="5"/>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="4"/>
       <c r="B313" s="2"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="5"/>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="4"/>
       <c r="B314" s="2"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="5"/>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="4"/>
       <c r="B315" s="2"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="5"/>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="4"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="5"/>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="4"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="5"/>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="4"/>
       <c r="B318" s="2"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="5"/>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="4"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="5"/>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="4"/>
       <c r="B320" s="2"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="5"/>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="4"/>
       <c r="B321" s="2"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="5"/>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="4"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="5"/>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="4"/>
       <c r="B323" s="2"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="5"/>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="4"/>
       <c r="B324" s="2"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="5"/>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="4"/>
       <c r="B325" s="2"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="5"/>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="4"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="5"/>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="4"/>
       <c r="B327" s="2"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="5"/>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="4"/>
       <c r="B328" s="2"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="5"/>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="4"/>
       <c r="B329" s="2"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="5"/>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="4"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="5"/>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="4"/>
       <c r="B331" s="2"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="5"/>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="4"/>
       <c r="B332" s="2"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="5"/>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="4"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="5"/>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="4"/>
       <c r="B334" s="2"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="5"/>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="4"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="5"/>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="4"/>
       <c r="B336" s="2"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="5"/>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="4"/>
       <c r="B337" s="2"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="5"/>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="4"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="5"/>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="4"/>
       <c r="B339" s="2"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="5"/>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="4"/>
       <c r="B340" s="2"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="5"/>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="4"/>
       <c r="B341" s="2"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="5"/>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="4"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="5"/>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="4"/>
       <c r="B343" s="2"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="5"/>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="4"/>
       <c r="B344" s="2"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="5"/>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="4"/>
       <c r="B345" s="2"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="5"/>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="4"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="5"/>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="4"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="5"/>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="4"/>
       <c r="B348" s="2"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="5"/>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="4"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="5"/>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="4"/>
       <c r="B350" s="2"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="5"/>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="4"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="5"/>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="4"/>
       <c r="B352" s="2"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="5"/>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="4"/>
       <c r="B353" s="2"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="5"/>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="4"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="5"/>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="4"/>
       <c r="B355" s="2"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="5"/>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="4"/>
       <c r="B356" s="2"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="5"/>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="4"/>
       <c r="B357" s="2"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="5"/>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="4"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="5"/>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="4"/>
       <c r="B359" s="2"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="5"/>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="4"/>
       <c r="B360" s="2"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="5"/>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="4"/>
       <c r="B361" s="2"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="5"/>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="4"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="5"/>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="4"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="5"/>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="4"/>
       <c r="B364" s="2"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="5"/>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="4"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="5"/>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="4"/>
       <c r="B366" s="2"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="5"/>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="4"/>
       <c r="B367" s="2"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="5"/>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="4"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="5"/>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="4"/>
       <c r="B369" s="2"/>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="5"/>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="4"/>
       <c r="B370" s="2"/>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="5"/>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="4"/>
       <c r="B371" s="2"/>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="5"/>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="4"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="5"/>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="4"/>
       <c r="B373" s="2"/>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="5"/>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="4"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="5"/>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="4"/>
       <c r="B375" s="2"/>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="5"/>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="4"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="5"/>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="4"/>
       <c r="B377" s="2"/>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="5"/>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="4"/>
       <c r="B378" s="2"/>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="5"/>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="4"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="5"/>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="4"/>
       <c r="B380" s="2"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="5"/>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="4"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="5"/>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="4"/>
       <c r="B382" s="2"/>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="5"/>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="4"/>
       <c r="B383" s="2"/>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="5"/>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="4"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="5"/>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="4"/>
       <c r="B385" s="2"/>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="5"/>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="4"/>
       <c r="B386" s="2"/>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="5"/>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="4"/>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="5"/>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="4"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="5"/>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="4"/>
       <c r="B389" s="2"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="5"/>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="4"/>
       <c r="B390" s="2"/>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="5"/>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="4"/>
       <c r="B391" s="2"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="5"/>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="4"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="5"/>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="4"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="5"/>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="4"/>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="5"/>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="4"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="5"/>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="4"/>
       <c r="B396" s="2"/>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="5"/>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="4"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="5"/>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="4"/>
       <c r="B398" s="2"/>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="5"/>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="4"/>
       <c r="B399" s="2"/>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="5"/>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="4"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="5"/>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="4"/>
       <c r="B401" s="2"/>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="5"/>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="4"/>
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="5"/>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="4"/>
       <c r="B403" s="2"/>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="5"/>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="4"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="5"/>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="4"/>
       <c r="B405" s="2"/>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="5"/>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="4"/>
       <c r="B406" s="2"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="5"/>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="4"/>
       <c r="B407" s="2"/>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="5"/>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="4"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="5"/>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="4"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="5"/>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="4"/>
       <c r="B410" s="2"/>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="5"/>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="4"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="5"/>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="4"/>
       <c r="B412" s="2"/>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="5"/>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="4"/>
       <c r="B413" s="2"/>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="5"/>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="4"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="5"/>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="4"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="5"/>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="4"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="5"/>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="4"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="5"/>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="4"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="5"/>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="4"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="5"/>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="4"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="5"/>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="4"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="5"/>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="4"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="5"/>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="4"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="5"/>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="4"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="5"/>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="4"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="5"/>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="4"/>
       <c r="B426" s="2"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="5"/>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="4"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="5"/>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="4"/>
       <c r="B428" s="2"/>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="5"/>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="4"/>
       <c r="B429" s="2"/>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="5"/>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="4"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="5"/>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="4"/>
       <c r="B431" s="2"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="5"/>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="4"/>
       <c r="B432" s="2"/>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="5"/>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="4"/>
       <c r="B433" s="2"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="5"/>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="4"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="5"/>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="4"/>
       <c r="B435" s="2"/>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="5"/>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="4"/>
       <c r="B436" s="2"/>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="5"/>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="4"/>
       <c r="B437" s="2"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="5"/>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="4"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="5"/>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="4"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="5"/>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="4"/>
       <c r="B440" s="2"/>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="5"/>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="4"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="5"/>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="4"/>
       <c r="B442" s="2"/>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="5"/>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="4"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="5"/>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="4"/>
       <c r="B444" s="2"/>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="5"/>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="4"/>
       <c r="B445" s="2"/>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="5"/>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="4"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="5"/>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="4"/>
       <c r="B447" s="2"/>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="5"/>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="4"/>
       <c r="B448" s="2"/>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="5"/>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="4"/>
       <c r="B449" s="2"/>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="5"/>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="4"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="5"/>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="4"/>
       <c r="B451" s="2"/>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="5"/>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="4"/>
       <c r="B452" s="2"/>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="5"/>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="4"/>
       <c r="B453" s="2"/>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="5"/>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="4"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="5"/>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="4"/>
       <c r="B456" s="2"/>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="5"/>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="4"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="5"/>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="4"/>
       <c r="B458" s="2"/>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="5"/>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="4"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="5"/>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="4"/>
       <c r="B460" s="2"/>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="5"/>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="4"/>
       <c r="B461" s="2"/>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="5"/>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="4"/>
       <c r="B462" s="2"/>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="5"/>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="4"/>
       <c r="B463" s="2"/>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="5"/>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="4"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="5"/>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="4"/>
       <c r="B465" s="2"/>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="5"/>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="4"/>
       <c r="B466" s="2"/>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="5"/>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="4"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="5"/>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="4"/>
       <c r="B468" s="2"/>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="5"/>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="4"/>
       <c r="B469" s="2"/>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="5"/>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="4"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="5"/>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="4"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="5"/>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="4"/>
       <c r="B472" s="2"/>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="5"/>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="4"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="5"/>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="5"/>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="4"/>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="4"/>
       <c r="B476" s="2"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="5"/>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="4"/>
       <c r="B477" s="2"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="5"/>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="4"/>
       <c r="B478" s="2"/>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="5"/>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="4"/>
       <c r="B479" s="2"/>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="5"/>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="4"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="5"/>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="4"/>
       <c r="B481" s="2"/>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="5"/>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="4"/>
       <c r="B482" s="2"/>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="5"/>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="4"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="5"/>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="4"/>
       <c r="B484" s="2"/>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="5"/>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="4"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="5"/>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="4"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="5"/>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="4"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="5"/>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="4"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="5"/>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="4"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="5"/>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="4"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="5"/>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="4"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="5"/>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="4"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="5"/>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="4"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="5"/>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="4"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="5"/>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="4"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="5"/>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="4"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="5"/>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="4"/>
       <c r="B497" s="2"/>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B498" s="2"/>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="5"/>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="4"/>
       <c r="B500" s="2"/>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="5"/>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="4"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="5"/>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="4"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="5"/>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="4"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="5"/>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="4"/>
       <c r="B504" s="2"/>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="5"/>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="4"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="5"/>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="4"/>
       <c r="B506" s="2"/>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="5"/>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="4"/>
       <c r="B507" s="2"/>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="5"/>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="4"/>
       <c r="B508" s="2"/>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="5"/>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="4"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="5"/>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="4"/>
       <c r="B510" s="2"/>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="5"/>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="4"/>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="5"/>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="4"/>
       <c r="B512" s="2"/>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="5"/>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="4"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="5"/>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="4"/>
       <c r="B514" s="2"/>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="5"/>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="4"/>
       <c r="B515" s="2"/>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="5"/>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="4"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="5"/>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="4"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="5"/>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="4"/>
       <c r="B518" s="2"/>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="5"/>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="4"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="5"/>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="4"/>
       <c r="B520" s="2"/>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="5"/>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="4"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="5"/>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="4"/>
       <c r="B522" s="2"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B523" s="2"/>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="5"/>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="4"/>
       <c r="B524" s="2"/>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="5"/>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="4"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="5"/>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="4"/>
       <c r="B526" s="2"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="5"/>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="4"/>
       <c r="B527" s="2"/>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="5"/>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="4"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="5"/>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="4"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="5"/>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="4"/>
       <c r="B531" s="2"/>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="5"/>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="4"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="5"/>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="4"/>
       <c r="B533" s="2"/>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="8"/>
-      <c r="B534" s="9"/>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="5"/>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="4"/>
+      <c r="B534" s="2"/>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="4"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="5"/>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="4"/>
       <c r="B536" s="2"/>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="5"/>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="4"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="5"/>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="4"/>
       <c r="B538" s="2"/>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="5"/>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="4"/>
       <c r="B539" s="2"/>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="5"/>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="4"/>
       <c r="B540" s="2"/>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="5"/>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="4"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="5"/>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="4"/>
       <c r="B542" s="2"/>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="5"/>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="4"/>
       <c r="B543" s="2"/>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" s="5"/>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="4"/>
       <c r="B544" s="2"/>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="5"/>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="4"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="5"/>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="4"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="5"/>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="4"/>
       <c r="B547" s="2"/>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="5"/>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="4"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="5"/>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="4"/>
       <c r="B549" s="2"/>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="5"/>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="4"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="5"/>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="4"/>
       <c r="B551" s="2"/>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="5"/>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="4"/>
       <c r="B552" s="2"/>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="5"/>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="4"/>
       <c r="B553" s="2"/>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="5"/>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="4"/>
       <c r="B554" s="2"/>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="5"/>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="4"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="5"/>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="4"/>
       <c r="B556" s="2"/>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="5"/>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="4"/>
       <c r="B557" s="2"/>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="5"/>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="4"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="5"/>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="4"/>
       <c r="B559" s="2"/>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="5"/>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="4"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" s="5"/>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="4"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" s="5"/>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="4"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" s="5"/>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="4"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="5"/>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="4"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="5"/>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="4"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="5"/>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="4"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" s="5"/>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="4"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="5"/>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="4"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="5"/>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="4"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="5"/>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="4"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="5"/>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="4"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="5"/>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="4"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="5"/>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="4"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="5"/>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="4"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="5"/>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="4"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="5"/>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="4"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="5"/>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="5"/>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="4"/>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="4"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="5"/>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="4"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="5"/>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="4"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="5"/>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="4"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="5"/>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="4"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="5"/>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="4"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="5"/>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="4"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="5"/>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="4"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="5"/>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="4"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="5"/>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="4"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="5"/>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="4"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="5"/>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="4"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="5"/>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="4"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="5"/>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="4"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="5"/>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="4"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="5"/>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="4"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="5"/>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="4"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="5"/>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="4"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="5"/>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="4"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="5"/>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="4"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="5"/>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="4"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="5"/>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="4"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="5"/>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="4"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="5"/>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="4"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="5"/>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="4"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="5"/>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="4"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="5"/>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="4"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="5"/>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="4"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="5"/>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="4"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="5"/>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="4"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="5"/>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="4"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="5"/>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="4"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="5"/>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="4"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="5"/>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="4"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="5"/>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="4"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="5"/>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="4"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="5"/>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="4"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="5"/>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="4"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="5"/>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="4"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="5"/>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="4"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="5"/>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="4"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" s="5"/>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="4"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" s="5"/>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="4"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="5"/>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="4"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="5"/>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="4"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="5"/>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="4"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" s="5"/>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="4"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" s="5"/>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="4"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" s="5"/>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="4"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="5"/>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="4"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" s="5"/>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="4"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="5"/>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="4"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="5"/>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="4"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="5"/>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="4"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="5"/>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="4"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" s="5"/>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="4"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" s="5"/>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="4"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" s="5"/>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="4"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636" s="5"/>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="4"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" s="5"/>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="4"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" s="5"/>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="4"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" s="5"/>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="4"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="5"/>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="4"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" s="5"/>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="4"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="5"/>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="4"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="5"/>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="4"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644" s="5"/>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="4"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645" s="5"/>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="4"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646" s="5"/>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="4"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="5"/>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="4"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="5"/>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="4"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" s="5"/>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="4"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650" s="5"/>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="4"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" s="5"/>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="4"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" s="5"/>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="4"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="5"/>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="4"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" s="5"/>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="4"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="5"/>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="4"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="5"/>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="4"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="5"/>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="4"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="5"/>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="4"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="5"/>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="4"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="5"/>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="4"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="5"/>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="4"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="5"/>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="4"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="5"/>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="4"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="5"/>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="4"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" s="5"/>
-      <c r="B665" s="4"/>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" s="5"/>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="4"/>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="4"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="5"/>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="4"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="5"/>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="4"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" s="5"/>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="4"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" s="5"/>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="4"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" s="5"/>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="4"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" s="5"/>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="4"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673" s="5"/>
-      <c r="B673" s="4"/>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674" s="5"/>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="4"/>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="4"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" s="5"/>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="4"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="5"/>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="4"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="5"/>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="4"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="5"/>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="4"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="5"/>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="4"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="5"/>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="4"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="5"/>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="4"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="5"/>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="4"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="5"/>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="4"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684" s="5"/>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="4"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685" s="5"/>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="4"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" s="5"/>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="4"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="5"/>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="4"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="5"/>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="4"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" s="5"/>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="4"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" s="5"/>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="4"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" s="5"/>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="4"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="5"/>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="4"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" s="5"/>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="4"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" s="5"/>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="4"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" s="5"/>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="4"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" s="5"/>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="4"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="5"/>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="4"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="5"/>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="4"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" s="5"/>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="4"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700" s="5"/>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="4"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" s="5"/>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="4"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" s="5"/>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="4"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="5"/>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="4"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="5"/>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="4"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" s="5"/>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="4"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" s="5"/>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="4"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="5"/>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="4"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="5"/>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="4"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="5"/>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="4"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" s="5"/>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="4"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" s="5"/>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="4"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" s="5"/>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="4"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="5"/>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="4"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" s="5"/>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="4"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" s="5"/>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="4"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" s="5"/>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="4"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="5"/>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="4"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" s="5"/>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="4"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719" s="5"/>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="4"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720" s="5"/>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="4"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" s="5"/>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="4"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" s="5"/>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="4"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="5"/>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="4"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" s="5"/>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="4"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" s="5"/>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="4"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="5"/>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="4"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="5"/>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="4"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" s="5"/>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="4"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" s="5"/>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="4"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" s="5"/>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="4"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" s="5"/>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="4"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" s="5"/>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="4"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" s="5"/>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" s="4"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735" s="5"/>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" s="4"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" s="5"/>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" s="4"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="5"/>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="4"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="5"/>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="4"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" s="5"/>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="4"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" s="5"/>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="4"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" s="5"/>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="4"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" s="5"/>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="4"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" s="5"/>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="4"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" s="5"/>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="4"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" s="5"/>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="4"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="5"/>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="4"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="5"/>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" s="4"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" s="5"/>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" s="4"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" s="5"/>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" s="4"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" s="5"/>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="4"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" s="5"/>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" s="4"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" s="5"/>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="4"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" s="5"/>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="4"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="5"/>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="4"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="5"/>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="4"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" s="5"/>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="4"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757" s="5"/>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="4"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" s="5"/>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" s="4"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" s="5"/>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="4"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" s="5"/>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="4"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" s="5"/>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" s="4"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" s="5"/>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="4"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" s="5"/>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="4"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="5"/>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="4"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" s="5"/>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="4"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" s="5"/>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="4"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767" s="5"/>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" s="4"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768" s="5"/>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" s="4"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769" s="5"/>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="4"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" s="8"/>
-      <c r="B770" s="9"/>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771" s="5"/>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="4"/>
+      <c r="B770" s="2"/>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="4"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772" s="5"/>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="4"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" s="5"/>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" s="4"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774" s="5"/>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" s="4"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775" s="5"/>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" s="4"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" s="5"/>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" s="4"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" s="5"/>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" s="4"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" s="5"/>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" s="4"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" s="5"/>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" s="4"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780" s="5"/>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" s="4"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781" s="5"/>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" s="4"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" s="5"/>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" s="4"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="5"/>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" s="4"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" s="5"/>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="4"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" s="5"/>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="4"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" s="5"/>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="4"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" s="5"/>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="4"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" s="5"/>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="4"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" s="5"/>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="4"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790" s="5"/>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="4"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791" s="5"/>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="4"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792" s="5"/>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="4"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" s="5"/>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="4"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" s="5"/>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="4"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795" s="5"/>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="4"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796" s="5"/>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="4"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" s="5"/>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="4"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" s="5"/>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="4"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799" s="5"/>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="4"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800" s="5"/>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="4"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801" s="5"/>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="4"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" s="5"/>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="4"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="5"/>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="4"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" s="5"/>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="4"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805" s="5"/>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="4"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806" s="5"/>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="4"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" s="5"/>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="4"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" s="5"/>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="4"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809" s="5"/>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="4"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" s="5"/>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="4"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811" s="5"/>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="4"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" s="5"/>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="4"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" s="5"/>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="4"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A814" s="5"/>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="4"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815" s="5"/>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="4"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A816" s="5"/>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="4"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A817" s="5"/>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="4"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" s="5"/>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="4"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A819" s="5"/>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="4"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A820" s="5"/>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="4"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A821" s="5"/>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="4"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A822" s="5"/>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="4"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A823" s="5"/>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="4"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824" s="5"/>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="4"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A825" s="5"/>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="4"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A826" s="5"/>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="4"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A827" s="5"/>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="4"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A828" s="5"/>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="4"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829" s="5"/>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="4"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A830" s="5"/>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="4"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A831" s="5"/>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="4"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A832" s="5"/>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="4"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A833" s="5"/>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="4"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A834" s="5"/>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="4"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835" s="5"/>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="4"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A836" s="5"/>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" s="4"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A837" s="5"/>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" s="4"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A838" s="5"/>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="4"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A839" s="5"/>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="4"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A840" s="5"/>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="4"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A841" s="5"/>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="4"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A842" s="5"/>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" s="4"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A843" s="5"/>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" s="4"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A844" s="5"/>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" s="4"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A845" s="5"/>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" s="4"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" s="5"/>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" s="4"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A847" s="5"/>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" s="4"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A848" s="5"/>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" s="4"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A849" s="5"/>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" s="4"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A850" s="5"/>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="4"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" s="5"/>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" s="4"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A852" s="5"/>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" s="4"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A853" s="5"/>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" s="4"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A854" s="5"/>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" s="4"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A855" s="5"/>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" s="4"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A856" s="5"/>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" s="4"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A857" s="5"/>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" s="4"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A858" s="5"/>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" s="4"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A859" s="5"/>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" s="4"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A860" s="5"/>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" s="4"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A861" s="5"/>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" s="4"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A862" s="5"/>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" s="4"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A863" s="5"/>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" s="4"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A864" s="5"/>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" s="4"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A865" s="5"/>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" s="4"/>
       <c r="B865" s="2"/>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A866" s="5"/>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" s="4"/>
       <c r="B866" s="2"/>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A867" s="5"/>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" s="4"/>
       <c r="B867" s="2"/>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A868" s="5"/>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" s="4"/>
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A869" s="5"/>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" s="4"/>
       <c r="B869" s="2"/>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A870" s="5"/>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" s="4"/>
       <c r="B870" s="2"/>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A871" s="5"/>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" s="4"/>
       <c r="B871" s="2"/>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A872" s="5"/>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" s="4"/>
       <c r="B872" s="2"/>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A873" s="5"/>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" s="4"/>
       <c r="B873" s="2"/>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A874" s="5"/>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" s="4"/>
       <c r="B874" s="2"/>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A875" s="5"/>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" s="4"/>
       <c r="B875" s="2"/>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A876" s="5"/>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" s="4"/>
       <c r="B876" s="2"/>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A877" s="5"/>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" s="4"/>
       <c r="B877" s="2"/>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A878" s="5"/>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" s="4"/>
       <c r="B878" s="2"/>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A879" s="5"/>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" s="4"/>
       <c r="B879" s="2"/>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A880" s="5"/>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="4"/>
       <c r="B880" s="2"/>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A881" s="5"/>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="4"/>
       <c r="B881" s="2"/>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A882" s="5"/>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="4"/>
       <c r="B882" s="2"/>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A883" s="5"/>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="4"/>
       <c r="B883" s="2"/>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A884" s="5"/>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="4"/>
       <c r="B884" s="2"/>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A885" s="5"/>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="4"/>
       <c r="B885" s="2"/>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A886" s="5"/>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="4"/>
       <c r="B886" s="2"/>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A887" s="5"/>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="4"/>
       <c r="B887" s="2"/>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A888" s="5"/>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" s="4"/>
       <c r="B888" s="2"/>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A889" s="5"/>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" s="4"/>
       <c r="B889" s="2"/>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A890" s="5"/>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" s="4"/>
       <c r="B890" s="2"/>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A891" s="5"/>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" s="4"/>
       <c r="B891" s="2"/>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A892" s="5"/>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" s="4"/>
       <c r="B892" s="2"/>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A893" s="5"/>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" s="4"/>
       <c r="B893" s="2"/>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A894" s="5"/>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" s="4"/>
       <c r="B894" s="2"/>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A895" s="5"/>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="4"/>
       <c r="B895" s="2"/>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A896" s="5"/>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" s="4"/>
       <c r="B896" s="2"/>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A897" s="5"/>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" s="4"/>
       <c r="B897" s="2"/>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A898" s="5"/>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" s="4"/>
       <c r="B898" s="2"/>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A899" s="5"/>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" s="4"/>
       <c r="B899" s="2"/>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A900" s="5"/>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" s="4"/>
       <c r="B900" s="2"/>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A901" s="5"/>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" s="4"/>
       <c r="B901" s="2"/>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A902" s="5"/>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" s="4"/>
       <c r="B902" s="2"/>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A903" s="5"/>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" s="4"/>
       <c r="B903" s="2"/>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A904" s="5"/>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" s="4"/>
       <c r="B904" s="2"/>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A906" s="5"/>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" s="4"/>
       <c r="B906" s="2"/>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A907" s="5"/>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" s="4"/>
       <c r="B907" s="2"/>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A908" s="5"/>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" s="4"/>
       <c r="B908" s="2"/>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A909" s="5"/>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" s="4"/>
       <c r="B909" s="2"/>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A910" s="5"/>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" s="4"/>
       <c r="B910" s="2"/>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A911" s="5"/>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" s="4"/>
       <c r="B911" s="2"/>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A912" s="5"/>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" s="4"/>
       <c r="B912" s="2"/>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A913" s="5"/>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" s="4"/>
       <c r="B913" s="2"/>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A914" s="5"/>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" s="4"/>
       <c r="B914" s="2"/>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A915" s="5"/>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" s="4"/>
       <c r="B915" s="2"/>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A916" s="5"/>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" s="4"/>
       <c r="B916" s="2"/>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A917" s="5"/>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" s="4"/>
       <c r="B917" s="2"/>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A918" s="5"/>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" s="4"/>
       <c r="B918" s="2"/>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A919" s="5"/>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" s="4"/>
       <c r="B919" s="2"/>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A920" s="5"/>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" s="4"/>
       <c r="B920" s="2"/>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A921" s="5"/>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" s="4"/>
       <c r="B921" s="2"/>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A922" s="5"/>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" s="4"/>
       <c r="B922" s="2"/>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A923" s="5"/>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" s="4"/>
       <c r="B923" s="2"/>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A924" s="5"/>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" s="4"/>
       <c r="B924" s="2"/>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A925" s="5"/>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" s="4"/>
       <c r="B925" s="2"/>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A926" s="5"/>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" s="4"/>
       <c r="B926" s="2"/>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A927" s="5"/>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" s="4"/>
       <c r="B927" s="2"/>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A928" s="5"/>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" s="4"/>
       <c r="B928" s="2"/>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A929" s="5"/>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" s="4"/>
       <c r="B929" s="2"/>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A930" s="5"/>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" s="4"/>
       <c r="B930" s="2"/>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A931" s="5"/>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" s="4"/>
       <c r="B931" s="2"/>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A932" s="5"/>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" s="4"/>
       <c r="B932" s="2"/>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A933" s="5"/>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" s="4"/>
       <c r="B933" s="2"/>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A934" s="5"/>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" s="4"/>
       <c r="B934" s="2"/>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A935" s="5"/>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" s="4"/>
       <c r="B935" s="2"/>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A936" s="5"/>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" s="4"/>
       <c r="B936" s="2"/>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A937" s="5"/>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" s="4"/>
       <c r="B937" s="2"/>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A938" s="5"/>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" s="4"/>
       <c r="B938" s="2"/>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A939" s="5"/>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" s="4"/>
       <c r="B939" s="2"/>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A940" s="5"/>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" s="4"/>
       <c r="B940" s="2"/>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A941" s="5"/>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" s="4"/>
       <c r="B941" s="2"/>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A942" s="5"/>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" s="4"/>
       <c r="B942" s="2"/>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A943" s="5"/>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" s="4"/>
       <c r="B943" s="2"/>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A944" s="5"/>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" s="4"/>
       <c r="B944" s="2"/>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A946" s="5"/>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" s="4"/>
       <c r="B946" s="2"/>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A947" s="5"/>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" s="4"/>
       <c r="B947" s="2"/>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A948" s="5"/>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" s="4"/>
       <c r="B948" s="2"/>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A950" s="5"/>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" s="4"/>
       <c r="B950" s="2"/>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A951" s="5"/>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" s="4"/>
       <c r="B951" s="2"/>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A952" s="5"/>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" s="4"/>
       <c r="B952" s="2"/>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A953" s="5"/>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A953" s="4"/>
       <c r="B953" s="2"/>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A954" s="5"/>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A954" s="4"/>
       <c r="B954" s="2"/>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A955" s="5"/>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A955" s="4"/>
       <c r="B955" s="2"/>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A956" s="5"/>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A956" s="4"/>
       <c r="B956" s="2"/>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A957" s="5"/>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A957" s="4"/>
       <c r="B957" s="2"/>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A958" s="5"/>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A958" s="4"/>
       <c r="B958" s="2"/>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A959" s="5"/>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A959" s="4"/>
       <c r="B959" s="2"/>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A960" s="5"/>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A960" s="4"/>
       <c r="B960" s="2"/>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A961" s="5"/>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A961" s="4"/>
       <c r="B961" s="2"/>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A962" s="5"/>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A962" s="4"/>
       <c r="B962" s="2"/>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A963" s="5"/>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A963" s="4"/>
       <c r="B963" s="2"/>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A964" s="5"/>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A964" s="4"/>
       <c r="B964" s="2"/>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A965" s="5"/>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A965" s="4"/>
       <c r="B965" s="2"/>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A966" s="5"/>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A966" s="4"/>
       <c r="B966" s="2"/>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A967" s="5"/>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A967" s="4"/>
       <c r="B967" s="2"/>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A968" s="5"/>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A968" s="4"/>
       <c r="B968" s="2"/>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A969" s="5"/>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A969" s="4"/>
       <c r="B969" s="2"/>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A970" s="5"/>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A970" s="4"/>
       <c r="B970" s="2"/>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A971" s="5"/>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A971" s="4"/>
       <c r="B971" s="2"/>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A972" s="5"/>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A972" s="4"/>
       <c r="B972" s="2"/>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A973" s="5"/>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A973" s="4"/>
       <c r="B973" s="2"/>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A974" s="5"/>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A974" s="4"/>
       <c r="B974" s="2"/>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A975" s="5"/>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A975" s="4"/>
       <c r="B975" s="2"/>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A976" s="5"/>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A976" s="4"/>
       <c r="B976" s="2"/>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A977" s="5"/>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A977" s="4"/>
       <c r="B977" s="2"/>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A978" s="5"/>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A978" s="4"/>
       <c r="B978" s="2"/>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A979" s="5"/>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A979" s="4"/>
       <c r="B979" s="2"/>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A980" s="5"/>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A980" s="4"/>
       <c r="B980" s="2"/>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A981" s="5"/>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A981" s="4"/>
       <c r="B981" s="2"/>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A982" s="5"/>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A982" s="4"/>
       <c r="B982" s="2"/>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A983" s="5"/>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A983" s="4"/>
       <c r="B983" s="2"/>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A984" s="5"/>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A984" s="4"/>
       <c r="B984" s="2"/>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A985" s="5"/>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A985" s="4"/>
       <c r="B985" s="2"/>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A986" s="5"/>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A986" s="4"/>
       <c r="B986" s="2"/>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A987" s="5"/>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A987" s="4"/>
       <c r="B987" s="2"/>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A988" s="5"/>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A988" s="4"/>
       <c r="B988" s="2"/>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A989" s="5"/>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A989" s="4"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A990" s="5"/>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A990" s="4"/>
       <c r="B990" s="2"/>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A991" s="5"/>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A991" s="4"/>
       <c r="B991" s="2"/>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A992" s="5"/>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A992" s="4"/>
       <c r="B992" s="2"/>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A993" s="5"/>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A993" s="4"/>
       <c r="B993" s="2"/>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A994" s="5"/>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A994" s="4"/>
       <c r="B994" s="2"/>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A995" s="5"/>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A995" s="4"/>
       <c r="B995" s="2"/>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A996" s="5"/>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A996" s="4"/>
       <c r="B996" s="2"/>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A997" s="5"/>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A997" s="4"/>
       <c r="B997" s="2"/>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A998" s="5"/>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A998" s="4"/>
       <c r="B998" s="2"/>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A999" s="5"/>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A999" s="4"/>
       <c r="B999" s="2"/>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1000" s="5"/>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1000" s="4"/>
       <c r="B1000" s="2"/>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1001" s="5"/>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1001" s="4"/>
       <c r="B1001" s="2"/>
     </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1002" s="5"/>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1002" s="4"/>
       <c r="B1002" s="2"/>
     </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1003" s="5"/>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1003" s="4"/>
       <c r="B1003" s="2"/>
     </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1004" s="5"/>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1004" s="4"/>
       <c r="B1004" s="2"/>
     </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1005" s="5"/>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1005" s="4"/>
       <c r="B1005" s="2"/>
     </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1006" s="5"/>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1006" s="4"/>
       <c r="B1006" s="2"/>
     </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1007" s="5"/>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1007" s="4"/>
       <c r="B1007" s="2"/>
     </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1008" s="5"/>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1008" s="4"/>
       <c r="B1008" s="2"/>
     </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1009" s="5"/>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1009" s="4"/>
       <c r="B1009" s="2"/>
     </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1010" s="5"/>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1010" s="4"/>
       <c r="B1010" s="2"/>
     </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1011" s="5"/>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1011" s="4"/>
       <c r="B1011" s="2"/>
     </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1012" s="5"/>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1012" s="4"/>
       <c r="B1012" s="2"/>
     </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1013" s="5"/>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1013" s="4"/>
       <c r="B1013" s="2"/>
     </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1014" s="5"/>
-    </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1015" s="5"/>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1014" s="4"/>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1015" s="4"/>
       <c r="B1015" s="2"/>
     </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1016" s="5"/>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1016" s="4"/>
       <c r="B1016" s="2"/>
     </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1018" s="5"/>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1018" s="4"/>
       <c r="B1018" s="2"/>
     </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1019" s="5"/>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1019" s="4"/>
       <c r="B1019" s="2"/>
     </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1020" s="5"/>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1020" s="4"/>
       <c r="B1020" s="2"/>
     </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1021" s="5"/>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1021" s="4"/>
       <c r="B1021" s="2"/>
     </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1022" s="5"/>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1022" s="4"/>
       <c r="B1022" s="2"/>
     </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1023" s="5"/>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1023" s="4"/>
       <c r="B1023" s="2"/>
     </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1024" s="5"/>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1024" s="4"/>
       <c r="B1024" s="2"/>
     </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1025" s="5"/>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1025" s="4"/>
       <c r="B1025" s="2"/>
     </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1026" s="5"/>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1026" s="4"/>
       <c r="B1026" s="2"/>
     </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1027" s="5"/>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1027" s="4"/>
       <c r="B1027" s="2"/>
     </row>
-    <row r="1028" spans="1:2" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1028" s="10"/>
-      <c r="B1028" s="10"/>
-    </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1029" s="5"/>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1028" s="6"/>
+      <c r="B1028" s="6"/>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1029" s="4"/>
       <c r="B1029" s="2"/>
     </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1030" s="5"/>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1030" s="4"/>
       <c r="B1030" s="2"/>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1031" s="5"/>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1031" s="4"/>
       <c r="B1031" s="2"/>
     </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1032" s="5"/>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1032" s="4"/>
       <c r="B1032" s="2"/>
     </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1033" s="5"/>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1033" s="4"/>
       <c r="B1033" s="2"/>
     </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1034" s="5"/>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1034" s="4"/>
       <c r="B1034" s="2"/>
     </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1035" s="5"/>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035" s="4"/>
       <c r="B1035" s="2"/>
     </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1036" s="5"/>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1036" s="4"/>
       <c r="B1036" s="2"/>
     </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1037" s="5"/>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1037" s="4"/>
       <c r="B1037" s="2"/>
     </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1038" s="5"/>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1038" s="4"/>
       <c r="B1038" s="2"/>
     </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1039" s="5"/>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1039" s="4"/>
       <c r="B1039" s="2"/>
     </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1040" s="5"/>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1040" s="4"/>
       <c r="B1040" s="2"/>
     </row>
-    <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1041" s="5"/>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041" s="4"/>
       <c r="B1041" s="2"/>
     </row>
-    <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1042" s="5"/>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1042" s="4"/>
       <c r="B1042" s="2"/>
     </row>
-    <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1043" s="5"/>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1043" s="4"/>
       <c r="B1043" s="2"/>
     </row>
-    <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1044" s="5"/>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1044" s="4"/>
       <c r="B1044" s="2"/>
     </row>
-    <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1045" s="5"/>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1045" s="4"/>
       <c r="B1045" s="2"/>
     </row>
-    <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1046" s="5"/>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1046" s="4"/>
       <c r="B1046" s="2"/>
     </row>
-    <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1047" s="5"/>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1047" s="4"/>
       <c r="B1047" s="2"/>
     </row>
-    <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1048" s="5"/>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1048" s="4"/>
       <c r="B1048" s="2"/>
     </row>
-    <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1049" s="5"/>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1049" s="4"/>
       <c r="B1049" s="2"/>
     </row>
-    <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1050" s="5"/>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1050" s="4"/>
       <c r="B1050" s="2"/>
     </row>
-    <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1051" s="5"/>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1051" s="4"/>
       <c r="B1051" s="2"/>
     </row>
-    <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1052" s="5"/>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1052" s="4"/>
       <c r="B1052" s="2"/>
     </row>
-    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1053" s="5"/>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1053" s="4"/>
       <c r="B1053" s="2"/>
     </row>
-    <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1054" s="5"/>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1054" s="4"/>
       <c r="B1054" s="2"/>
     </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1055" s="5"/>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1055" s="4"/>
       <c r="B1055" s="2"/>
     </row>
-    <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1056" s="5"/>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1056" s="4"/>
       <c r="B1056" s="2"/>
     </row>
-    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1057" s="5"/>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1057" s="4"/>
       <c r="B1057" s="2"/>
     </row>
-    <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1058" s="5"/>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1058" s="4"/>
       <c r="B1058" s="2"/>
     </row>
-    <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1059" s="5"/>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1059" s="4"/>
       <c r="B1059" s="2"/>
     </row>
-    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1060" s="5"/>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1060" s="4"/>
       <c r="B1060" s="2"/>
     </row>
-    <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1061" s="5"/>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1061" s="4"/>
       <c r="B1061" s="2"/>
     </row>
-    <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1062" s="5"/>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1062" s="4"/>
       <c r="B1062" s="2"/>
     </row>
-    <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1064" s="5"/>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1064" s="4"/>
       <c r="B1064" s="2"/>
     </row>
-    <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1065" s="5"/>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1065" s="4"/>
       <c r="B1065" s="2"/>
     </row>
-    <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1066" s="5"/>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1066" s="4"/>
       <c r="B1066" s="2"/>
     </row>
-    <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1067" s="5"/>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1067" s="4"/>
       <c r="B1067" s="2"/>
     </row>
-    <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1068" s="5"/>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1068" s="4"/>
       <c r="B1068" s="2"/>
     </row>
-    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1071" s="5"/>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1071" s="4"/>
       <c r="B1071" s="2"/>
     </row>
-    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1072" s="5"/>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1072" s="4"/>
       <c r="B1072" s="2"/>
     </row>
-    <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1073" s="5"/>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1073" s="4"/>
       <c r="B1073" s="2"/>
     </row>
-    <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1074" s="5"/>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1074" s="4"/>
       <c r="B1074" s="2"/>
     </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1075" s="5"/>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1075" s="4"/>
       <c r="B1075" s="2"/>
     </row>
-    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1076" s="5"/>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1076" s="4"/>
       <c r="B1076" s="2"/>
     </row>
-    <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1077" s="5"/>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1077" s="4"/>
       <c r="B1077" s="2"/>
     </row>
-    <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1078" s="5"/>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1078" s="4"/>
       <c r="B1078" s="2"/>
     </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1079" s="5"/>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1079" s="4"/>
       <c r="B1079" s="2"/>
     </row>
-    <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1080" s="5"/>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1080" s="4"/>
       <c r="B1080" s="2"/>
     </row>
-    <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1081" s="5"/>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1081" s="4"/>
       <c r="B1081" s="2"/>
     </row>
-    <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1082" s="6"/>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1082" s="5"/>
       <c r="B1082" s="3"/>
     </row>
-    <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1083" s="5"/>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1083" s="4"/>
       <c r="B1083" s="2"/>
     </row>
-    <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1085" s="5"/>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1085" s="4"/>
       <c r="B1085" s="2"/>
     </row>
-    <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1086" s="5"/>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1086" s="4"/>
       <c r="B1086" s="2"/>
     </row>
-    <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1087" s="5"/>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1087" s="4"/>
       <c r="B1087" s="2"/>
     </row>
-    <row r="1088" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1088" s="8"/>
-      <c r="B1088" s="9"/>
-    </row>
-    <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1089" s="5"/>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1088" s="4"/>
+      <c r="B1088" s="2"/>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1089" s="4"/>
       <c r="B1089" s="2"/>
     </row>
-    <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1090" s="5"/>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1090" s="4"/>
       <c r="B1090" s="2"/>
     </row>
-    <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1091" s="5"/>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1091" s="4"/>
       <c r="B1091" s="2"/>
     </row>
-    <row r="1092" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1092" s="5"/>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1092" s="4"/>
       <c r="B1092" s="2"/>
     </row>
-    <row r="1093" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1093" s="5"/>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1093" s="4"/>
       <c r="B1093" s="2"/>
     </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1094" s="5"/>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1094" s="4"/>
       <c r="B1094" s="2"/>
     </row>
-    <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1095" s="5"/>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1095" s="4"/>
       <c r="B1095" s="2"/>
     </row>
-    <row r="1096" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1096" s="5"/>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1096" s="4"/>
       <c r="B1096" s="2"/>
     </row>
-    <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1097" s="5"/>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1097" s="4"/>
       <c r="B1097" s="2"/>
     </row>
-    <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1098" s="5"/>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1098" s="4"/>
       <c r="B1098" s="2"/>
     </row>
-    <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1099" s="5"/>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1099" s="4"/>
       <c r="B1099" s="2"/>
     </row>
-    <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1100" s="5"/>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1100" s="4"/>
       <c r="B1100" s="2"/>
     </row>
-    <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1101" s="5"/>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1101" s="4"/>
       <c r="B1101" s="2"/>
     </row>
-    <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1102" s="5"/>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1102" s="4"/>
       <c r="B1102" s="2"/>
     </row>
-    <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1103" s="5"/>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1103" s="4"/>
       <c r="B1103" s="2"/>
     </row>
-    <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1104" s="5"/>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1104" s="4"/>
       <c r="B1104" s="2"/>
     </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1105" s="5"/>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1105" s="4"/>
       <c r="B1105" s="2"/>
     </row>
-    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1111" s="2"/>
     </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1112" s="5"/>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1112" s="4"/>
       <c r="B1112" s="2"/>
     </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1113" s="5"/>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1113" s="4"/>
       <c r="B1113" s="2"/>
     </row>
-    <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1114" s="5"/>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1114" s="4"/>
       <c r="B1114" s="2"/>
     </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1115" s="5"/>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1115" s="4"/>
       <c r="B1115" s="2"/>
     </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1116" s="5"/>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1116" s="4"/>
       <c r="B1116" s="2"/>
     </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1117" s="5"/>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1117" s="4"/>
       <c r="B1117" s="2"/>
     </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1118" s="5"/>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1118" s="4"/>
       <c r="B1118" s="2"/>
     </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1119" s="5"/>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1119" s="4"/>
       <c r="B1119" s="2"/>
     </row>
-    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1120" s="5"/>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1120" s="4"/>
       <c r="B1120" s="2"/>
     </row>
-    <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1121" s="8"/>
-      <c r="B1121" s="9"/>
-    </row>
-    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1122" s="5"/>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1121" s="4"/>
+      <c r="B1121" s="2"/>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1122" s="4"/>
       <c r="B1122" s="2"/>
     </row>
-    <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1129" s="12"/>
-      <c r="B1129" s="12"/>
-    </row>
-    <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1140" s="7"/>
-      <c r="B1140" s="7"/>
-    </row>
-    <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1148" s="5"/>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1129" s="8"/>
+      <c r="B1129" s="8"/>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1148" s="4"/>
       <c r="B1148" s="2"/>
     </row>
-    <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1165" s="5"/>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1165" s="4"/>
       <c r="B1165" s="2"/>
     </row>
-    <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1166" s="5"/>
-    </row>
-    <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1167" s="5"/>
-    </row>
-    <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1168" s="5"/>
-    </row>
-    <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1169" s="5"/>
-    </row>
-    <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1170" s="5"/>
-    </row>
-    <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1171" s="5"/>
-    </row>
-    <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1172" s="5"/>
-    </row>
-    <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1173" s="5"/>
-    </row>
-    <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1174" s="5"/>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1166" s="4"/>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1167" s="4"/>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1168" s="4"/>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1169" s="4"/>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1170" s="4"/>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1171" s="4"/>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1172" s="4"/>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1173" s="4"/>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1174" s="4"/>
       <c r="B1174"/>
     </row>
-    <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1175" s="5"/>
-    </row>
-    <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1176" s="5"/>
-    </row>
-    <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1177" s="5"/>
-    </row>
-    <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1178" s="5"/>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1175" s="4"/>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1176" s="4"/>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1177" s="4"/>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1178" s="4"/>
       <c r="B1178"/>
     </row>
-    <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1179" s="5"/>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1179" s="4"/>
       <c r="B1179"/>
     </row>
-    <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1180" s="5"/>
-    </row>
-    <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1181" s="5"/>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1180" s="4"/>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1181" s="4"/>
       <c r="B1181"/>
     </row>
-    <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1182" s="5"/>
-    </row>
-    <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1183" s="5"/>
-    </row>
-    <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1184" s="5"/>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1182" s="4"/>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1183" s="4"/>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1184" s="4"/>
       <c r="B1184"/>
     </row>
-    <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1185" s="5"/>
-    </row>
-    <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1186" s="5"/>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1185" s="4"/>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1186" s="4"/>
       <c r="B1186"/>
     </row>
-    <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1187" s="5"/>
-    </row>
-    <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1188" s="5"/>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1187" s="4"/>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1188" s="4"/>
       <c r="B1188"/>
     </row>
-    <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1189" s="5"/>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1189" s="4"/>
       <c r="B1189"/>
     </row>
-    <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1190" s="5"/>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1190" s="4"/>
       <c r="B1190"/>
     </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1191" s="5"/>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1191" s="4"/>
       <c r="B1191"/>
     </row>
-    <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1192" s="5"/>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1192" s="4"/>
       <c r="B1192" s="2"/>
     </row>
-    <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1193" s="5"/>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1193" s="4"/>
       <c r="B1193"/>
     </row>
-    <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1194" s="5"/>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1194" s="4"/>
       <c r="B1194"/>
     </row>
-    <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1195" s="5"/>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1195" s="4"/>
       <c r="B1195" s="2"/>
     </row>
-    <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1196" s="5"/>
-    </row>
-    <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1197" s="5"/>
-    </row>
-    <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1198" s="5"/>
-    </row>
-    <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1196" s="4"/>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1197" s="4"/>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1198" s="4"/>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1200" s="2"/>
     </row>
-    <row r="1210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1210" s="2"/>
     </row>
-    <row r="1219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1219" s="2"/>
     </row>
-    <row r="1229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1229" s="2"/>
     </row>
-    <row r="1232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1232" s="2"/>
     </row>
-    <row r="1236" spans="1:2" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1236" s="10"/>
-      <c r="B1236" s="10"/>
-    </row>
-    <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1236" s="6"/>
+      <c r="B1236" s="6"/>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1241" s="2"/>
     </row>
-    <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1243" s="2"/>
     </row>
-    <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1246" s="2"/>
     </row>
-    <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1248" s="2"/>
     </row>
-    <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1250" s="2"/>
     </row>
-    <row r="1254" spans="1:2" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1254" s="10"/>
-      <c r="B1254" s="10"/>
-    </row>
-    <row r="1277" spans="1:2" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1277" s="10"/>
-      <c r="B1277" s="10"/>
-    </row>
-    <row r="1278" spans="1:2" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1278" s="10"/>
-      <c r="B1278" s="11"/>
-    </row>
-    <row r="1279" spans="1:2" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1279" s="10"/>
-      <c r="B1279" s="10"/>
-    </row>
-    <row r="1280" spans="1:2" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1280" s="10"/>
-      <c r="B1280" s="10"/>
-    </row>
-    <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1254" s="6"/>
+      <c r="B1254" s="6"/>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1277" s="6"/>
+      <c r="B1277" s="6"/>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1278" s="6"/>
+      <c r="B1278" s="7"/>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1279" s="6"/>
+      <c r="B1279" s="6"/>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1280" s="6"/>
+      <c r="B1280" s="6"/>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281"/>
       <c r="B1281"/>
     </row>
-    <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282"/>
       <c r="B1282"/>
     </row>
-    <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283"/>
       <c r="B1283"/>
     </row>
-    <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284"/>
       <c r="B1284"/>
     </row>
-    <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285"/>
-      <c r="B1285" s="13"/>
-    </row>
-    <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1285" s="9"/>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286"/>
       <c r="B1286"/>
     </row>
-    <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287"/>
       <c r="B1287"/>
     </row>
@@ -6653,7 +6598,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6665,7 +6610,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
